--- a/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 10,65</t>
+          <t>-1,69; 9,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 2,04</t>
+          <t>-14,58; 1,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,66</t>
+          <t>-0,69; 7,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 134,24</t>
+          <t>-15,45; 116,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 6,08</t>
+          <t>-34,58; 5,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 206,11</t>
+          <t>-14,39; 200,53</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 16,89</t>
+          <t>4,03; 15,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 9,07</t>
+          <t>-3,73; 9,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 8,1</t>
+          <t>-4,81; 7,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,63</t>
+          <t>-3,9; 5,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 78,02</t>
+          <t>14,21; 73,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 17,93</t>
+          <t>-6,74; 18,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 21,89</t>
+          <t>-10,58; 20,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 57,15</t>
+          <t>-23,1; 53,6</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 15,41</t>
+          <t>2,66; 15,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,51</t>
+          <t>-7,15; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,02</t>
+          <t>1,55; 15,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,15</t>
+          <t>-0,83; 10,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 117,64</t>
+          <t>13,09; 120,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 37,17</t>
+          <t>-37,37; 34,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 70,52</t>
+          <t>4,2; 71,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 82,68</t>
+          <t>-5,45; 86,37</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 16,82</t>
+          <t>5,99; 16,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 5,53</t>
+          <t>-5,84; 5,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 15,67</t>
+          <t>1,5; 15,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 21,84</t>
+          <t>5,14; 21,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,98; 180,05</t>
+          <t>38,04; 173,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 19,07</t>
+          <t>-16,84; 17,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 57,31</t>
+          <t>4,55; 57,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,97; 268,71</t>
+          <t>27,62; 261,29</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 14,47</t>
+          <t>-1,96; 14,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 12,24</t>
+          <t>-7,11; 11,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 14,31</t>
+          <t>-4,23; 13,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,65</t>
+          <t>-3,98; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 128,85</t>
+          <t>-10,73; 123,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 43,84</t>
+          <t>-18,29; 42,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 25,79</t>
+          <t>-6,52; 23,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 130,68</t>
+          <t>-50,03; 148,0</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 18,61</t>
+          <t>3,57; 19,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 5,92</t>
+          <t>-7,06; 5,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 6,26</t>
+          <t>-6,57; 7,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,43</t>
+          <t>-1,96; 8,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,27; 113,7</t>
+          <t>16,15; 112,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 46,88</t>
+          <t>-36,23; 39,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 40,56</t>
+          <t>-30,7; 52,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 91,87</t>
+          <t>-11,97; 90,61</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 19,19</t>
+          <t>10,04; 19,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 6,99</t>
+          <t>-2,42; 7,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,38</t>
+          <t>-2,35; 7,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,58</t>
+          <t>-6,51; 3,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,35; 107,56</t>
+          <t>45,25; 112,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 36,09</t>
+          <t>-10,31; 38,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 30,78</t>
+          <t>-7,33; 28,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 31,69</t>
+          <t>-44,44; 34,98</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,4</t>
+          <t>2,83; 11,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 6,17</t>
+          <t>-3,64; 5,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,88</t>
+          <t>-5,58; 4,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,11</t>
+          <t>-0,95; 8,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,8; 69,96</t>
+          <t>13,74; 67,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 20,19</t>
+          <t>-10,42; 19,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 15,53</t>
+          <t>-15,57; 13,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 50,68</t>
+          <t>-4,57; 52,9</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,73; 11,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,37</t>
+          <t>-1,24; 3,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,54</t>
+          <t>-0,17; 4,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,89</t>
+          <t>0,74; 4,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,6; 68,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 11,49</t>
+          <t>-3,94; 10,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 13,87</t>
+          <t>-0,45; 13,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,23; 39,87</t>
+          <t>4,75; 38,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,89</t>
+          <t>-2,57; 10,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 1,66</t>
+          <t>-13,85; 2,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 116,57</t>
+          <t>-18,54; 125,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 5,4</t>
+          <t>-33,44; 6,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,93</t>
+          <t>4,47; 16,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 9,49</t>
+          <t>-4,43; 9,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 7,7</t>
+          <t>-5,03; 7,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 73,58</t>
+          <t>16,31; 75,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 18,67</t>
+          <t>-7,7; 18,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 20,62</t>
+          <t>-11,71; 20,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 15,75</t>
+          <t>2,86; 16,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,18</t>
+          <t>-7,36; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 15,4</t>
+          <t>2,2; 15,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 120,58</t>
+          <t>14,24; 121,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 34,37</t>
+          <t>-38,39; 32,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 71,92</t>
+          <t>7,89; 74,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 16,52</t>
+          <t>5,73; 16,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 5,11</t>
+          <t>-4,71; 5,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 15,29</t>
+          <t>1,15; 15,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,04; 173,57</t>
+          <t>36,7; 171,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 17,64</t>
+          <t>-13,98; 20,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 57,89</t>
+          <t>3,57; 58,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 14,15</t>
+          <t>-1,71; 13,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 11,94</t>
+          <t>-7,98; 11,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 13,4</t>
+          <t>-3,39; 14,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 123,04</t>
+          <t>-7,92; 115,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 42,41</t>
+          <t>-20,55; 39,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 23,5</t>
+          <t>-5,14; 26,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 19,25</t>
+          <t>3,85; 19,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,24</t>
+          <t>-7,47; 4,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 7,08</t>
+          <t>-6,84; 7,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,15; 112,61</t>
+          <t>15,88; 117,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 39,81</t>
+          <t>-37,8; 36,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 52,27</t>
+          <t>-31,72; 49,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,56</t>
+          <t>9,43; 19,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 7,16</t>
+          <t>-2,89; 6,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 7,96</t>
+          <t>-3,33; 7,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,25; 112,3</t>
+          <t>42,9; 111,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 38,68</t>
+          <t>-11,89; 36,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 28,69</t>
+          <t>-10,06; 27,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,13</t>
+          <t>2,75; 11,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 5,85</t>
+          <t>-4,21; 5,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,2</t>
+          <t>-5,26; 4,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,74; 67,42</t>
+          <t>13,54; 71,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 19,52</t>
+          <t>-11,59; 18,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 13,37</t>
+          <t>-14,73; 14,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,82</t>
+          <t>7,8; 11,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,19</t>
+          <t>-1,1; 3,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,44</t>
+          <t>-0,2; 4,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,6; 68,52</t>
+          <t>41,63; 70,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,76</t>
+          <t>-3,44; 10,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 13,84</t>
+          <t>-0,59; 13,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 10,02</t>
+          <t>-1,8; 10,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 2,15</t>
+          <t>-13,6; 2,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,48</t>
+          <t>-0,51; 7,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 125,13</t>
+          <t>-15,68; 134,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 6,37</t>
+          <t>-32,52; 6,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 200,53</t>
+          <t>-13,21; 206,11</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,18</t>
+          <t>5,26; 16,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 9,2</t>
+          <t>-3,93; 9,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 7,61</t>
+          <t>-4,47; 8,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,2</t>
+          <t>-4,1; 5,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 75,74</t>
+          <t>18,46; 78,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 18,17</t>
+          <t>-7,07; 17,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 20,35</t>
+          <t>-10,06; 21,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 53,6</t>
+          <t>-26,42; 57,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 16,13</t>
+          <t>2,33; 15,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 3,86</t>
+          <t>-6,96; 4,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 15,83</t>
+          <t>1,69; 15,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 10,39</t>
+          <t>-1,04; 10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 121,68</t>
+          <t>10,65; 117,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 32,35</t>
+          <t>-37,49; 37,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 74,93</t>
+          <t>6,15; 70,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 86,37</t>
+          <t>-6,26; 82,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 16,38</t>
+          <t>5,86; 16,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,81</t>
+          <t>-4,43; 5,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 15,59</t>
+          <t>1,02; 15,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 21,41</t>
+          <t>5,15; 21,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 171,15</t>
+          <t>40,98; 180,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 20,33</t>
+          <t>-12,94; 19,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 58,35</t>
+          <t>3,37; 57,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 261,29</t>
+          <t>31,97; 268,71</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 13,39</t>
+          <t>-1,41; 14,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 11,1</t>
+          <t>-6,94; 12,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 14,74</t>
+          <t>-3,75; 14,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 4,48</t>
+          <t>-3,76; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 115,57</t>
+          <t>-8,72; 128,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 39,05</t>
+          <t>-18,06; 43,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 26,2</t>
+          <t>-5,61; 25,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 148,0</t>
+          <t>-51,25; 130,68</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 19,62</t>
+          <t>3,77; 18,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 4,89</t>
+          <t>-7,51; 5,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 7,16</t>
+          <t>-7,18; 6,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 8,31</t>
+          <t>-1,82; 8,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,88; 117,24</t>
+          <t>15,27; 113,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 36,07</t>
+          <t>-38,67; 46,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 49,1</t>
+          <t>-33,02; 40,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 90,61</t>
+          <t>-13,45; 91,87</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,43; 19,5</t>
+          <t>8,89; 19,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 6,87</t>
+          <t>-2,44; 6,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 7,72</t>
+          <t>-2,45; 8,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 3,94</t>
+          <t>-6,36; 3,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,9; 111,89</t>
+          <t>38,35; 107,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 36,13</t>
+          <t>-10,44; 36,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 27,67</t>
+          <t>-7,57; 30,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 34,98</t>
+          <t>-44,94; 31,69</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,54</t>
+          <t>2,93; 11,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,67</t>
+          <t>-3,55; 6,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,54</t>
+          <t>-4,97; 4,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,54</t>
+          <t>-0,79; 8,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,54; 71,57</t>
+          <t>13,8; 69,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 18,76</t>
+          <t>-10,02; 20,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 14,56</t>
+          <t>-13,91; 15,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 52,9</t>
+          <t>-4,12; 50,68</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,99</t>
+          <t>7,74; 11,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,1</t>
+          <t>-1,36; 3,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,44</t>
+          <t>-0,0; 4,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,79</t>
+          <t>0,65; 4,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>41,63; 70,04</t>
+          <t>41,09; 70,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 10,47</t>
+          <t>-4,36; 11,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 13,64</t>
+          <t>-0,12; 13,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,75; 38,99</t>
+          <t>4,23; 39,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>83,55%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,14; 9,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,66</t>
+          <t>0,32; 9,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; 25,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 206,11</t>
+          <t>-3,46; 272,82</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,63</t>
+          <t>-4,21; 5,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 57,15</t>
+          <t>-26,2; 59,78</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>30,01%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,15</t>
+          <t>-1,25; 10,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 82,68</t>
+          <t>-6,72; 84,43</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>22,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>106,37%</t>
+          <t>207,76%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 5,53</t>
+          <t>-6,34; 6,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 21,84</t>
+          <t>7,5; 51,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 19,07</t>
+          <t>-22,14; 28,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,97; 268,71</t>
+          <t>59,24; 766,84</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>-0,7%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,65</t>
+          <t>-4,59; 3,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 130,68</t>
+          <t>-61,01; 105,55</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>27,84%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,43</t>
+          <t>-1,97; 8,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 91,87</t>
+          <t>-14,63; 91,32</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-13,53%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,58</t>
+          <t>-9,41; 2,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 31,69</t>
+          <t>-63,18; 27,44</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>51,18%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,11</t>
+          <t>0,71; 16,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 50,68</t>
+          <t>2,22; 229,98</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>37,45%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,89</t>
+          <t>1,19; 10,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,23; 39,87</t>
+          <t>9,05; 95,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 10,65</t>
+          <t>-1,19; 10,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 9,2</t>
+          <t>-8,58; 8,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 2,04</t>
+          <t>-13,7; 2,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,89</t>
+          <t>0,15; 10,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 134,24</t>
+          <t>-11,68; 135,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 25,67</t>
+          <t>-20,13; 23,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 6,08</t>
+          <t>-33,0; 7,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 272,82</t>
+          <t>-2,57; 277,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 16,89</t>
+          <t>4,59; 16,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 9,07</t>
+          <t>-3,64; 9,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 8,1</t>
+          <t>-5,39; 7,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,79</t>
+          <t>-4,82; 4,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 78,02</t>
+          <t>16,65; 75,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 17,93</t>
+          <t>-6,14; 19,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 21,89</t>
+          <t>-12,23; 21,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 59,78</t>
+          <t>-28,6; 44,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 15,41</t>
+          <t>3,82; 16,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,51</t>
+          <t>-7,17; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,02</t>
+          <t>1,98; 15,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 10,12</t>
+          <t>-0,81; 10,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 117,64</t>
+          <t>18,05; 123,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 37,17</t>
+          <t>-38,15; 31,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 70,52</t>
+          <t>7,56; 76,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 84,43</t>
+          <t>-4,38; 89,01</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 16,82</t>
+          <t>5,14; 16,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 6,25</t>
+          <t>-6,32; 6,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 15,67</t>
+          <t>0,93; 15,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 51,64</t>
+          <t>7,59; 48,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,98; 180,05</t>
+          <t>32,49; 170,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 28,1</t>
+          <t>-22,06; 30,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 57,31</t>
+          <t>2,34; 55,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,24; 766,84</t>
+          <t>67,4; 690,28</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 14,47</t>
+          <t>-1,38; 14,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 12,24</t>
+          <t>-8,81; 11,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 14,31</t>
+          <t>-3,93; 13,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 3,61</t>
+          <t>-4,29; 3,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 128,85</t>
+          <t>-7,48; 126,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 43,84</t>
+          <t>-22,04; 38,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 25,79</t>
+          <t>-6,26; 23,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,01; 105,55</t>
+          <t>-56,41; 110,48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 18,61</t>
+          <t>4,21; 18,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 5,92</t>
+          <t>-7,71; 4,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 6,26</t>
+          <t>-6,31; 6,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 8,39</t>
+          <t>-1,74; 8,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,27; 113,7</t>
+          <t>15,49; 105,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 46,88</t>
+          <t>-40,61; 33,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 40,56</t>
+          <t>-30,35; 44,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 91,32</t>
+          <t>-11,98; 88,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 19,19</t>
+          <t>8,91; 19,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 6,99</t>
+          <t>-2,55; 6,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,38</t>
+          <t>-2,64; 7,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 2,97</t>
+          <t>-9,01; 3,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,35; 107,56</t>
+          <t>38,81; 108,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 36,09</t>
+          <t>-10,6; 36,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 30,78</t>
+          <t>-8,12; 27,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-63,18; 27,44</t>
+          <t>-57,42; 28,8</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,4</t>
+          <t>2,29; 11,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 6,17</t>
+          <t>-3,4; 6,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,88</t>
+          <t>-4,77; 5,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 16,77</t>
+          <t>0,64; 17,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,8; 69,96</t>
+          <t>11,68; 66,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 20,19</t>
+          <t>-9,79; 20,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 15,53</t>
+          <t>-13,42; 17,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,22; 229,98</t>
+          <t>2,63; 279,04</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,84; 11,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,37</t>
+          <t>-1,16; 3,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,54</t>
+          <t>0,09; 4,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,59</t>
+          <t>1,41; 9,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,78; 69,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 11,49</t>
+          <t>-3,67; 12,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 13,87</t>
+          <t>0,3; 14,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,05; 95,38</t>
+          <t>9,46; 83,51</t>
         </is>
       </c>
     </row>
